--- a/data/sample_import_template-magistral-small-2509.xlsx
+++ b/data/sample_import_template-magistral-small-2509.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58F67FF-15CD-4946-9D1B-3121175E0742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C185CE25-D984-4588-869B-0341F1D24275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="25968" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1017,7 +1017,7 @@
         <v>70</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
